--- a/data/trans_camb/IP16A08-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A08-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,88</t>
+          <t>10,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-12,53</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>-6,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,29</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-12,24</t>
+          <t>-8,43</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-6,21</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-12,42</t>
+          <t>-2,07</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 15,02</t>
+          <t>-6,56; 14,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,02; 7,6</t>
+          <t>-0,53; 24,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,56; -1,28</t>
+          <t>-7,38; 15,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 11,04</t>
+          <t>-21,34; 7,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 12,29</t>
+          <t>-17,25; 14,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,83; 1,3</t>
+          <t>-22,63; 4,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 7,95</t>
+          <t>-9,0; 8,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-16,02; 5,57</t>
+          <t>-5,32; 14,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-21,05; -4,53</t>
+          <t>-11,08; 6,46</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,97%</t>
+          <t>37,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-31,92%</t>
+          <t>111,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-50,77%</t>
+          <t>29,03%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-16,0%</t>
+          <t>-30,49%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-18,37%</t>
+          <t>-5,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-52,42%</t>
+          <t>-40,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-9,23%</t>
+          <t>-4,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-25,8%</t>
+          <t>37,99%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-51,56%</t>
+          <t>-14,13%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-50,4; 81,93</t>
+          <t>-44,73; 374,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-69,43; 49,21</t>
+          <t>-14,91; 663,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-75,8; -1,65</t>
+          <t>-57,61; 387,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-60,29; 67,67</t>
+          <t>-70,52; 73,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-62,44; 80,99</t>
+          <t>-59,78; 117,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-79,45; 9,44</t>
+          <t>-77,65; 41,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-41,32; 40,03</t>
+          <t>-47,91; 90,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-56,81; 28,3</t>
+          <t>-27,58; 148,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-72,81; -22,9</t>
+          <t>-55,75; 65,56</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,92</t>
+          <t>-7,88</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>-12,53</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-6,41</t>
+          <t>-3,74</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-4,29</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,43</t>
+          <t>-12,24</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,57</t>
+          <t>-6,21</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-12,42</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 14,17</t>
+          <t>-15,49; 15,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 24,6</t>
+          <t>-21,02; 7,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 15,02</t>
+          <t>-23,56; -1,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-21,34; 7,3</t>
+          <t>-18,36; 11,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 14,35</t>
+          <t>-18,61; 12,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,63; 4,2</t>
+          <t>-24,83; 1,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 8,34</t>
+          <t>-11,73; 7,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 14,93</t>
+          <t>-16,02; 5,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 6,46</t>
+          <t>-21,05; -4,53</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>37,88%</t>
+          <t>-0,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>111,96%</t>
+          <t>-31,92%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>29,03%</t>
+          <t>-50,77%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-30,49%</t>
+          <t>-16,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-5,75%</t>
+          <t>-18,37%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-40,1%</t>
+          <t>-52,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-4,74%</t>
+          <t>-9,23%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>37,99%</t>
+          <t>-25,8%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-14,13%</t>
+          <t>-51,56%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-44,73; 374,6</t>
+          <t>-50,4; 81,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-14,91; 663,61</t>
+          <t>-69,43; 49,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-57,61; 387,88</t>
+          <t>-75,8; -1,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-70,52; 73,06</t>
+          <t>-60,29; 67,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-59,78; 117,02</t>
+          <t>-62,44; 80,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-77,65; 41,8</t>
+          <t>-79,45; 9,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-47,91; 90,34</t>
+          <t>-41,32; 40,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,58; 148,76</t>
+          <t>-56,81; 28,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-55,75; 65,56</t>
+          <t>-72,81; -22,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A08-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A08-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,05</t>
+          <t>-10,65</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,54</t>
+          <t>-3,95</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-9,12</t>
+          <t>-12,28</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>-4,91</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-6,4</t>
+          <t>-7,42</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,45; 1,31</t>
+          <t>-22,99; -1,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,15; 4,17</t>
+          <t>-16,43; 9,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,49; -0,52</t>
+          <t>-24,64; -4,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 6,87</t>
+          <t>-5,74; 7,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 5,01</t>
+          <t>-5,29; 8,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,83; -1,33</t>
+          <t>-12,26; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 1,69</t>
+          <t>-12,17; 0,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 2,52</t>
+          <t>-8,84; 6,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,38; -1,52</t>
+          <t>-15,33; -2,59</t>
         </is>
       </c>
     </row>
@@ -738,27 +738,27 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-57,61%</t>
+          <t>-86,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-45,29%</t>
+          <t>-32,14%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-74,46%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>39,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-12,68%</t>
+          <t>77,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-39,78%</t>
+          <t>-66,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-37,51%</t>
+          <t>-16,14%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-77,99%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -791,22 +791,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-89,88; 40,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-86,47; 86,83</t>
+          <t>-100,0; 278,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 30,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-78,12; 40,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-80,09; 62,54</t>
+          <t>-79,54; 220,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 27,9</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>-2,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,92</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,41</t>
+          <t>-6,67</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-9,88</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-8,43</t>
+          <t>-7,5</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-4,6</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,57</t>
+          <t>-4,04</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-2,76</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 14,17</t>
+          <t>-12,44; 5,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 24,6</t>
+          <t>-8,74; 13,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 15,02</t>
+          <t>-9,2; 13,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,34; 7,3</t>
+          <t>-18,92; 4,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 14,35</t>
+          <t>-21,57; 0,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,63; 4,2</t>
+          <t>-19,04; 3,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 8,34</t>
+          <t>-11,78; 2,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 14,93</t>
+          <t>-12,33; 3,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 6,46</t>
+          <t>-10,64; 5,3</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>37,88%</t>
+          <t>-25,76%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>111,96%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29,03%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-30,49%</t>
+          <t>-42,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-5,75%</t>
+          <t>-63,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-40,1%</t>
+          <t>-48,11%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-4,74%</t>
+          <t>-35,14%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>37,99%</t>
+          <t>-30,82%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-14,13%</t>
+          <t>-21,08%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-44,73; 374,6</t>
+          <t>-73,79; 120,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,91; 663,61</t>
+          <t>-60,74; 203,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-57,61; 387,88</t>
+          <t>-66,98; 239,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-70,52; 73,06</t>
+          <t>-83,92; 73,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,78; 117,02</t>
+          <t>-93,8; 71,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-77,65; 41,8</t>
+          <t>-86,69; 66,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,91; 90,34</t>
+          <t>-67,27; 35,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,58; 148,76</t>
+          <t>-71,25; 42,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-55,75; 65,56</t>
+          <t>-60,18; 62,28</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>6,8</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,88</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-12,53</t>
+          <t>-10,41</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>-6,54</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,29</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-12,24</t>
+          <t>-10,21</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-6,21</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-12,42</t>
+          <t>-10,41</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 15,02</t>
+          <t>-15,32; 25,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-21,02; 7,6</t>
+          <t>-21,38; 13,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-23,56; -1,28</t>
+          <t>-27,96; 3,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 11,04</t>
+          <t>-23,57; 10,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 12,29</t>
+          <t>-22,04; 16,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,83; 1,3</t>
+          <t>-28,72; 8,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 7,95</t>
+          <t>-13,94; 13,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-16,02; 5,57</t>
+          <t>-15,07; 11,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-21,05; -4,53</t>
+          <t>-21,48; 2,04</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,97%</t>
+          <t>31,43%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-31,92%</t>
+          <t>-12,32%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-50,77%</t>
+          <t>-48,09%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-16,0%</t>
+          <t>-26,08%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-18,37%</t>
+          <t>-3,56%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-52,42%</t>
+          <t>-40,73%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-9,23%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-25,8%</t>
+          <t>-6,99%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-51,56%</t>
+          <t>-44,67%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-50,4; 81,93</t>
+          <t>-51,49; 180,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-69,43; 49,21</t>
+          <t>-67,43; 108,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-75,8; -1,65</t>
+          <t>-85,78; 44,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-60,29; 67,67</t>
+          <t>-69,58; 90,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,44; 80,99</t>
+          <t>-60,65; 124,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-79,45; 9,44</t>
+          <t>-79,25; 71,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-41,32; 40,03</t>
+          <t>-46,07; 85,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-56,81; 28,3</t>
+          <t>-48,19; 73,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-72,81; -22,9</t>
+          <t>-73,22; 17,76</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,58</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,86</t>
+          <t>-11,06</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,71</t>
+          <t>-10,09</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-3,5</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-5,79</t>
+          <t>-10,69</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 3,19</t>
+          <t>-15,13; 20,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 5,9</t>
+          <t>-20,97; 17,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 0,78</t>
+          <t>-23,91; 2,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 3,17</t>
+          <t>-15,99; 19,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 6,01</t>
+          <t>-14,18; 24,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 1,05</t>
+          <t>-25,17; 3,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 1,6</t>
+          <t>-10,13; 13,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 4,6</t>
+          <t>-12,25; 13,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,93; -1,03</t>
+          <t>-21,0; -1,83</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-21,99%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-8,87%</t>
+          <t>-11,41%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-36,04%</t>
+          <t>-48,48%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-21,95%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-10,54%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-36,93%</t>
+          <t>-49,06%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-22,04%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-9,89%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-36,47%</t>
+          <t>-48,96%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-50,5; 29,04</t>
+          <t>-55,02; 140,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-41,9; 46,29</t>
+          <t>-69,24; 116,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-63,75; 6,69</t>
+          <t>-78,98; 20,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-52,17; 27,69</t>
+          <t>-57,03; 166,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-48,12; 50,37</t>
+          <t>-54,54; 199,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-66,14; 9,63</t>
+          <t>-81,65; 43,27</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-44,94; 14,17</t>
+          <t>-40,05; 82,08</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-35,98; 35,96</t>
+          <t>-46,21; 84,45</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-57,1; -7,07</t>
+          <t>-74,45; -8,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-3,58</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,44</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-5,86</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-3,39</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-1,63</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-5,71</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-3,5</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-1,57</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-5,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-9,94; 2,88</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-8,5; 6,23</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-12,88; 0,26</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-10,33; 3,52</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-8,97; 5,47</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-12,7; 0,73</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-8,3; 1,33</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-6,48; 3,65</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-10,77; -1,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-21,99%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-8,87%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-36,04%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-21,95%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-10,54%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-36,93%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-22,04%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-9,89%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-36,47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-50,91; 24,39</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-44,36; 46,87</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-62,77; 1,82</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-55,29; 30,31</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-46,63; 45,61</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-64,17; 7,45</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-44,87; 9,83</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-35,57; 27,33</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-57,43; -9,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP16A08-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A08-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,99; -1,92</t>
+          <t>-23,49; -2,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 9,46</t>
+          <t>-17,18; 10,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,64; -4,72</t>
+          <t>-25,05; -4,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 7,07</t>
+          <t>-5,81; 7,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 8,67</t>
+          <t>-5,4; 8,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 0,0</t>
+          <t>-11,38; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 0,61</t>
+          <t>-12,16; 0,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 6,32</t>
+          <t>-9,5; 5,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-15,33; -2,59</t>
+          <t>-14,59; -2,62</t>
         </is>
       </c>
     </row>
@@ -791,42 +791,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 241,64</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 278,45</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 99,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-79,54; 220,94</t>
+          <t>-81,07; 229,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 5,56</t>
+          <t>-12,86; 5,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 13,4</t>
+          <t>-9,23; 12,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 13,04</t>
+          <t>-8,36; 13,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,92; 4,9</t>
+          <t>-17,89; 4,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,57; 0,89</t>
+          <t>-20,61; 1,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,04; 3,88</t>
+          <t>-19,03; 4,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 2,61</t>
+          <t>-11,97; 2,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,33; 3,47</t>
+          <t>-12,49; 3,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 5,3</t>
+          <t>-10,98; 5,35</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-73,79; 120,64</t>
+          <t>-77,23; 117,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-60,74; 203,14</t>
+          <t>-59,31; 197,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-66,98; 239,95</t>
+          <t>-54,64; 262,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-83,92; 73,06</t>
+          <t>-82,28; 76,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-93,8; 71,55</t>
+          <t>-93,91; 61,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-86,69; 66,38</t>
+          <t>-86,38; 65,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-67,27; 35,45</t>
+          <t>-69,77; 30,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-71,25; 42,66</t>
+          <t>-69,94; 49,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-60,18; 62,28</t>
+          <t>-63,86; 64,32</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 25,22</t>
+          <t>-10,66; 26,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-21,38; 13,48</t>
+          <t>-20,84; 13,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-27,96; 3,52</t>
+          <t>-26,85; 5,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-23,57; 10,92</t>
+          <t>-24,9; 12,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,04; 16,82</t>
+          <t>-21,9; 16,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-28,72; 8,05</t>
+          <t>-27,55; 8,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,94; 13,76</t>
+          <t>-14,34; 14,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,07; 11,56</t>
+          <t>-15,27; 11,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-21,48; 2,04</t>
+          <t>-22,57; 0,64</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-51,49; 180,13</t>
+          <t>-38,65; 254,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-67,43; 108,59</t>
+          <t>-66,86; 125,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-85,78; 44,77</t>
+          <t>-84,51; 67,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-69,58; 90,15</t>
+          <t>-72,09; 87,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-60,65; 124,38</t>
+          <t>-55,93; 119,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-79,25; 71,31</t>
+          <t>-77,56; 80,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-46,07; 85,02</t>
+          <t>-46,72; 99,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-48,19; 73,86</t>
+          <t>-49,53; 65,13</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-73,22; 17,76</t>
+          <t>-72,43; 9,89</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 20,48</t>
+          <t>-14,74; 23,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-20,97; 17,7</t>
+          <t>-18,15; 17,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-23,91; 2,49</t>
+          <t>-26,02; 1,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-15,99; 19,56</t>
+          <t>-14,63; 21,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 24,85</t>
+          <t>-15,86; 25,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-25,17; 3,78</t>
+          <t>-26,5; 3,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 13,86</t>
+          <t>-11,1; 13,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 13,51</t>
+          <t>-11,31; 15,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-21,0; -1,83</t>
+          <t>-20,56; -1,27</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-55,02; 140,13</t>
+          <t>-55,69; 156,31</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-69,24; 116,09</t>
+          <t>-67,37; 116,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-78,98; 20,7</t>
+          <t>-81,04; 11,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-57,03; 166,31</t>
+          <t>-54,18; 180,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-54,54; 199,49</t>
+          <t>-60,32; 254,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-81,65; 43,27</t>
+          <t>-81,57; 41,13</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-40,05; 82,08</t>
+          <t>-42,8; 82,81</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-46,21; 84,45</t>
+          <t>-43,85; 103,28</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-74,45; -8,73</t>
+          <t>-73,17; -5,5</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 2,88</t>
+          <t>-10,16; 3,31</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 6,23</t>
+          <t>-7,94; 6,52</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 0,26</t>
+          <t>-12,69; -0,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 3,52</t>
+          <t>-10,06; 3,21</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 5,47</t>
+          <t>-9,49; 6,78</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 0,73</t>
+          <t>-12,3; 1,52</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 1,33</t>
+          <t>-8,37; 1,22</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 3,65</t>
+          <t>-6,56; 3,22</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-10,77; -1,47</t>
+          <t>-10,46; -1,14</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-50,91; 24,39</t>
+          <t>-51,08; 27,45</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-44,36; 46,87</t>
+          <t>-42,72; 46,95</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-62,77; 1,82</t>
+          <t>-62,88; 3,15</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-55,29; 30,31</t>
+          <t>-53,76; 30,03</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-46,63; 45,61</t>
+          <t>-50,05; 58,37</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-64,17; 7,45</t>
+          <t>-63,06; 18,52</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-44,87; 9,83</t>
+          <t>-45,45; 9,75</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-35,57; 27,33</t>
+          <t>-35,59; 26,35</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-57,43; -9,22</t>
+          <t>-56,97; -9,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A08-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A08-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,9</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-2,45</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-10,65</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-3,95</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>-12,28</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-2,45</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-23,49; -2,2</t>
+          <t>-6,65; 7,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,18; 10,46</t>
+          <t>-5,32; 8,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-25,05; -4,55</t>
+          <t>-13,05; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 7,13</t>
+          <t>-24,91; -2,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 8,93</t>
+          <t>-16,6; 9,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 0,0</t>
+          <t>-24,79; -4,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,16; 0,73</t>
+          <t>-12,96; 0,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 5,92</t>
+          <t>-9,27; 6,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-14,59; -2,62</t>
+          <t>-14,63; -2,5</t>
         </is>
       </c>
     </row>
@@ -738,27 +738,27 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>39,45%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>77,45%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-86,69%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-32,14%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>39,45%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>77,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 241,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,22 +811,22 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 283,49</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 99,25</t>
+          <t>-100,0; 58,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-81,07; 229,87</t>
+          <t>-82,13; 226,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-6,67</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-9,88</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-7,89</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>-2,83</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>1,37</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,53</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-6,67</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-9,88</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-7,5</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>-2,88</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 5,3</t>
+          <t>-18,89; 4,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 12,7</t>
+          <t>-20,83; 1,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 13,88</t>
+          <t>-20,01; 2,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 4,62</t>
+          <t>-12,25; 6,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,61; 1,69</t>
+          <t>-9,5; 13,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,03; 4,36</t>
+          <t>-9,3; 13,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 2,47</t>
+          <t>-11,67; 2,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,49; 3,71</t>
+          <t>-11,68; 4,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 5,35</t>
+          <t>-10,49; 6,44</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-42,81%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-63,45%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-50,66%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-25,76%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>12,42%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>13,95%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-42,81%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-63,45%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-48,11%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-21,08%</t>
+          <t>-21,97%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-77,23; 117,33</t>
+          <t>-83,18; 75,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-59,31; 197,12</t>
+          <t>-94,59; 64,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-54,64; 262,12</t>
+          <t>-85,57; 53,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-82,28; 76,82</t>
+          <t>-73,53; 120,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-93,91; 61,3</t>
+          <t>-62,99; 249,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-86,38; 65,39</t>
+          <t>-59,49; 224,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-69,77; 30,17</t>
+          <t>-67,36; 30,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-69,94; 49,01</t>
+          <t>-67,58; 53,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-63,86; 64,32</t>
+          <t>-60,87; 74,84</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-6,54</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,89</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-10,06</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>6,8</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-2,67</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-10,41</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-6,54</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-0,89</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-10,21</t>
+          <t>-10,81</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-10,41</t>
+          <t>-10,61</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 26,68</t>
+          <t>-26,78; 9,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-20,84; 13,45</t>
+          <t>-19,95; 17,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-26,85; 5,24</t>
+          <t>-28,71; 6,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-24,9; 12,18</t>
+          <t>-11,96; 26,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,9; 16,32</t>
+          <t>-21,25; 13,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-27,55; 8,03</t>
+          <t>-29,78; 2,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-14,34; 14,51</t>
+          <t>-13,63; 13,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,27; 11,06</t>
+          <t>-15,58; 10,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-22,57; 0,64</t>
+          <t>-21,65; 2,07</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-26,08%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-3,56%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-40,12%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>31,43%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-12,32%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-48,09%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-26,08%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-3,56%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-40,73%</t>
+          <t>-49,96%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-44,67%</t>
+          <t>-45,53%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-38,65; 254,63</t>
+          <t>-75,16; 74,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-66,86; 125,29</t>
+          <t>-57,06; 139,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-84,51; 67,24</t>
+          <t>-79,81; 64,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-72,09; 87,06</t>
+          <t>-41,13; 228,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,93; 119,68</t>
+          <t>-64,89; 151,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-77,56; 80,32</t>
+          <t>-85,07; 44,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-46,72; 99,04</t>
+          <t>-44,3; 81,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,53; 65,13</t>
+          <t>-47,5; 68,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-72,43; 9,89</t>
+          <t>-71,28; 17,82</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>2,24</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3,51</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-13,08</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>1,41</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-2,6</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-11,06</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>2,24</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>3,51</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-10,09</t>
+          <t>-11,35</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-10,69</t>
+          <t>-12,55</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 23,54</t>
+          <t>-16,46; 18,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-18,15; 17,47</t>
+          <t>-14,75; 23,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-26,02; 1,06</t>
+          <t>-31,71; -1,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,63; 21,19</t>
+          <t>-14,25; 21,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 25,1</t>
+          <t>-19,16; 16,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-26,5; 3,21</t>
+          <t>-24,16; 1,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 13,49</t>
+          <t>-11,29; 15,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-11,31; 15,78</t>
+          <t>-12,09; 13,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-20,56; -1,27</t>
+          <t>-23,67; -3,92</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>10,88%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>17,05%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-63,65%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>6,17%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-11,41%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-48,48%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>10,88%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>17,05%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-49,06%</t>
+          <t>-49,74%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-48,96%</t>
+          <t>-57,47%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-55,69; 156,31</t>
+          <t>-61,89; 144,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-67,37; 116,78</t>
+          <t>-60,72; 211,31</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-81,04; 11,84</t>
+          <t>-92,44; -11,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-54,18; 180,11</t>
+          <t>-53,03; 144,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-60,32; 254,35</t>
+          <t>-67,6; 109,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-81,57; 41,13</t>
+          <t>-79,28; 16,23</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-42,8; 82,81</t>
+          <t>-41,01; 96,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-43,85; 103,28</t>
+          <t>-49,45; 84,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-73,17; -5,5</t>
+          <t>-83,48; -24,92</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-3,39</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,63</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-7,02</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>-3,58</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-1,44</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-5,86</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-3,39</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-1,63</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-5,71</t>
+          <t>-6,05</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-5,79</t>
+          <t>-6,55</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 3,31</t>
+          <t>-10,6; 3,17</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 6,52</t>
+          <t>-9,21; 6,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,69; -0,02</t>
+          <t>-14,82; -0,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 3,21</t>
+          <t>-9,92; 3,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 6,78</t>
+          <t>-8,46; 5,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 1,52</t>
+          <t>-13,02; 0,49</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 1,22</t>
+          <t>-8,18; 1,6</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 3,22</t>
+          <t>-6,51; 4,6</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-10,46; -1,14</t>
+          <t>-11,93; -1,79</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-21,95%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-10,54%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-45,44%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>-21,99%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-8,87%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-36,04%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-21,95%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-10,54%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-36,93%</t>
+          <t>-37,21%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-36,47%</t>
+          <t>-41,25%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-51,08; 27,45</t>
+          <t>-52,17; 27,69</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-42,72; 46,95</t>
+          <t>-48,12; 50,37</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-62,88; 3,15</t>
+          <t>-75,9; -7,28</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-53,76; 30,03</t>
+          <t>-50,5; 29,04</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-50,05; 58,37</t>
+          <t>-41,9; 46,29</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-63,06; 18,52</t>
+          <t>-64,43; 3,61</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-45,45; 9,75</t>
+          <t>-44,94; 14,17</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-35,59; 26,35</t>
+          <t>-35,98; 35,96</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-56,97; -9,46</t>
+          <t>-61,31; -12,29</t>
         </is>
       </c>
     </row>
